--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-14.1424979803693</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.19899791477627</v>
+        <v>-14.27388588703094</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5279367336288541</v>
+        <v>-0.5331998393712279</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.54545988376419</v>
+        <v>-10.71999337294724</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.6900695297137</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.40576465355564</v>
+        <v>-14.48134651786093</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5150669999354374</v>
+        <v>-0.5103275863067325</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.29990065166477</v>
+        <v>-10.4740806486711</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.19942617773328</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.71963952188318</v>
+        <v>-14.79260292562013</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4266023096338943</v>
+        <v>-0.406636547800262</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.876102808678102</v>
+        <v>-10.05015188265601</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.69527306018483</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.1769929370532</v>
+        <v>-15.25150123252546</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3694151308212348</v>
+        <v>-0.3459799087345451</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.659294273619118</v>
+        <v>-9.836446223370514</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.15396394780947</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.62439620206351</v>
+        <v>-15.70630164864134</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3482056002176386</v>
+        <v>-0.3186169957953377</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.466732683423011</v>
+        <v>-9.640978141943544</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.58839976408895</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.10230453269503</v>
+        <v>-16.19511586754003</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.368210638959796</v>
+        <v>-0.33418374387415</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.322036552416254</v>
+        <v>-9.488976505951102</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.99616574789751</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.6101287753199</v>
+        <v>-16.71278552190188</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1471994746886183</v>
+        <v>-0.1095460117158141</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.120297257928097</v>
+        <v>-9.287918011210715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.40869906871518</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.22951253045912</v>
+        <v>-17.33271915376045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03725798004846031</v>
+        <v>0.04858282200655336</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.135654529161442</v>
+        <v>-9.28582324275604</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.8418625392477</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.64867569823982</v>
+        <v>-17.7514895524559</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1727109452489582</v>
+        <v>0.1988955509324103</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.827226058816059</v>
+        <v>-8.987685322444253</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.316378653509489</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.18195137758901</v>
+        <v>-18.2939953053085</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3027567893758232</v>
+        <v>0.3348722082465773</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.746106150408725</v>
+        <v>-8.89936464747397</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.850251102014971</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.70189909264532</v>
+        <v>-18.81306583607441</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3768854080656762</v>
+        <v>0.3977021695840207</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.241149122106192</v>
+        <v>-8.389223067246114</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.439048725453194</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.46392348724514</v>
+        <v>-19.57725046064312</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5112778967359943</v>
+        <v>0.5308116125758496</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.649848356562475</v>
+        <v>-7.801705977223656</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.087940436300981</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.28698419769309</v>
+        <v>-20.39684171083802</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7478165321774592</v>
+        <v>0.7639462492784658</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.076130553735197</v>
+        <v>-7.241224492569363</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.778801292091732</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.0881938546982</v>
+        <v>-21.2094023944069</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8315679934559809</v>
+        <v>0.8575954915053323</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.524682758041696</v>
+        <v>-6.685430052332408</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.495151797941607</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.984060861249</v>
+        <v>-22.11510172039183</v>
       </c>
       <c r="F16" t="n">
-        <v>1.080518131991402</v>
+        <v>1.113392904426976</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.036117292897003</v>
+        <v>-6.21532473419455</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.222320580527018</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.62152508661264</v>
+        <v>-22.74760396297846</v>
       </c>
       <c r="F17" t="n">
-        <v>1.255169451900028</v>
+        <v>1.285163917710422</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.911504754449455</v>
+        <v>-6.087805704516138</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.935880469378575</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.40483756563311</v>
+        <v>-23.53805174704767</v>
       </c>
       <c r="F18" t="n">
-        <v>1.577619778588899</v>
+        <v>1.612183458091056</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.505276781876379</v>
+        <v>-5.667359491056947</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.626393118463846</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.19908211752642</v>
+        <v>-24.32610363969685</v>
       </c>
       <c r="F19" t="n">
-        <v>1.825614179016874</v>
+        <v>1.854076845394787</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.260869672427036</v>
+        <v>-5.436699299591417</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.277936541458743</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.95496622209347</v>
+        <v>-25.08856008029045</v>
       </c>
       <c r="F20" t="n">
-        <v>2.045931451237441</v>
+        <v>2.067795596983123</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.021031776669457</v>
+        <v>-5.197424372856032</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.88666742309692</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.53602880681496</v>
+        <v>-25.6726862638769</v>
       </c>
       <c r="F21" t="n">
-        <v>2.406100702413325</v>
+        <v>2.433934938254835</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.76778736280195</v>
+        <v>-4.941705513751439</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.457734429263492</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.1126531008731</v>
+        <v>-26.24749072784004</v>
       </c>
       <c r="F22" t="n">
-        <v>2.692088965687989</v>
+        <v>2.709946866764103</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.465839582363221</v>
+        <v>-4.615995203654977</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.99903590393683</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.61406211510553</v>
+        <v>-26.74986857248275</v>
       </c>
       <c r="F23" t="n">
-        <v>2.888997200427549</v>
+        <v>2.907300239800282</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.319991328706393</v>
+        <v>-4.482545360789263</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.536231018362764</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.82813435887059</v>
+        <v>-26.96260540135796</v>
       </c>
       <c r="F24" t="n">
-        <v>3.00832044852704</v>
+        <v>3.014028692566033</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.132444090498667</v>
+        <v>-4.277690098224776</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.088671224442592</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.14084401224522</v>
+        <v>-27.28917980344198</v>
       </c>
       <c r="F25" t="n">
-        <v>3.31528258095415</v>
+        <v>3.322509532122782</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.881019506726159</v>
+        <v>-4.029145821077448</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.683043865804404</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.10853220883184</v>
+        <v>-27.25617410797798</v>
       </c>
       <c r="F26" t="n">
-        <v>3.388337630810981</v>
+        <v>3.38734261579501</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.841376013721413</v>
+        <v>-3.993325280502485</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.339918300070771</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.03861931165702</v>
+        <v>-27.19050311692389</v>
       </c>
       <c r="F27" t="n">
-        <v>3.399649380466232</v>
+        <v>3.396009720276233</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.778349667841343</v>
+        <v>-3.91068666496551</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.071122648864766</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.95523443485807</v>
+        <v>-27.10885951640288</v>
       </c>
       <c r="F28" t="n">
-        <v>3.470347815811553</v>
+        <v>3.475768029188028</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.778978098377746</v>
+        <v>-3.90939052698418</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.888048085440414</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.8134840719907</v>
+        <v>-26.97208422861537</v>
       </c>
       <c r="F29" t="n">
-        <v>3.474746829566373</v>
+        <v>3.466524863381769</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.703121295712785</v>
+        <v>-3.828532464633679</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.784670732166577</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.69630796155725</v>
+        <v>-26.84901658190314</v>
       </c>
       <c r="F30" t="n">
-        <v>3.451233053662633</v>
+        <v>3.447986162557885</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.662692264537535</v>
+        <v>-3.788116525761271</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.756086245868967</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.29239732658716</v>
+        <v>-26.44434659336823</v>
       </c>
       <c r="F31" t="n">
-        <v>3.345028293010551</v>
+        <v>3.338953464491991</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.849349226152024</v>
+        <v>-3.966630075008206</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.787463210041139</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.95943388071638</v>
+        <v>-26.10673537998864</v>
       </c>
       <c r="F32" t="n">
-        <v>3.298026925808755</v>
+        <v>3.290957082274223</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.942671160807847</v>
+        <v>-4.068750037173669</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.862852665705939</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.53875200580604</v>
+        <v>-25.68305536772754</v>
       </c>
       <c r="F33" t="n">
-        <v>3.181243584460558</v>
+        <v>3.179620138908184</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.093049351247913</v>
+        <v>-4.210919353731972</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.971777097402581</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.07942165290692</v>
+        <v>-25.21653734056832</v>
       </c>
       <c r="F34" t="n">
-        <v>3.103292013340921</v>
+        <v>3.104758351259195</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.012309119622988</v>
+        <v>-4.127927246018271</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.100259631851166</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.72767075245827</v>
+        <v>-24.87155516068884</v>
       </c>
       <c r="F35" t="n">
-        <v>2.852495860104817</v>
+        <v>2.859277672976831</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.116654773271545</v>
+        <v>-4.240494865851431</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.244949067708828</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.02575312020481</v>
+        <v>-24.15530145682369</v>
       </c>
       <c r="F36" t="n">
-        <v>2.733670119513311</v>
+        <v>2.742206300966116</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.438214823367179</v>
+        <v>-4.567003806421238</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.397662721409299</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.59874766302191</v>
+        <v>-23.73120249087166</v>
       </c>
       <c r="F37" t="n">
-        <v>2.579626084277562</v>
+        <v>2.59015229576231</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.520735608178578</v>
+        <v>-4.658885587764471</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.55359418440863</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.22113946446085</v>
+        <v>-23.34484863401232</v>
       </c>
       <c r="F38" t="n">
-        <v>2.524193274045694</v>
+        <v>2.538175853480657</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.628603091291559</v>
+        <v>-4.770654577124287</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.709284538986246</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.74782653212677</v>
+        <v>-22.87876265284687</v>
       </c>
       <c r="F39" t="n">
-        <v>2.473971200344833</v>
+        <v>2.471614585833322</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.564869761058037</v>
+        <v>-4.710364522538138</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.858544234680781</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.3882595268816</v>
+        <v>-22.51741509441523</v>
       </c>
       <c r="F40" t="n">
-        <v>2.463287881225984</v>
+        <v>2.4741806771903</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.617448449270409</v>
+        <v>-4.757352797437093</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.004982636372154</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.86742153523206</v>
+        <v>-21.97932144762029</v>
       </c>
       <c r="F41" t="n">
-        <v>2.541160898528571</v>
+        <v>2.541265636951305</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.557826102129188</v>
+        <v>-4.714959920835584</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.148493138191228</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.25434827006255</v>
+        <v>-21.38004746964596</v>
       </c>
       <c r="F42" t="n">
-        <v>2.669360727954753</v>
+        <v>2.673183680384537</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.570643466611238</v>
+        <v>-4.732019191438353</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.295976337033788</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.60102926595758</v>
+        <v>-20.721020221502</v>
       </c>
       <c r="F43" t="n">
-        <v>2.779676471699136</v>
+        <v>2.781875978576546</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.560601670331634</v>
+        <v>-4.717342719952779</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.452807048130989</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.34519257612741</v>
+        <v>-20.46088925633974</v>
       </c>
       <c r="F44" t="n">
-        <v>2.732229966200721</v>
+        <v>2.738697563804534</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.648516483913824</v>
+        <v>-4.81163348501889</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.619901069404556</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.90993896815423</v>
+        <v>-20.03017867745264</v>
       </c>
       <c r="F45" t="n">
-        <v>2.809605475995322</v>
+        <v>2.817565596123091</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.631666690156523</v>
+        <v>-4.792427076750077</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.804634317602694</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.55267620820921</v>
+        <v>-19.6647855974429</v>
       </c>
       <c r="F46" t="n">
-        <v>2.857156719916471</v>
+        <v>2.872684191086758</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.733930667653246</v>
+        <v>-4.886547641879246</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.003747487037411</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.0737074010475</v>
+        <v>-19.18860545078649</v>
       </c>
       <c r="F47" t="n">
-        <v>2.881429849385031</v>
+        <v>2.884572002067046</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.045043060081182</v>
+        <v>-5.196141327177543</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.220988078159013</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.62039950745558</v>
+        <v>-18.73914669423003</v>
       </c>
       <c r="F48" t="n">
-        <v>2.852967183007119</v>
+        <v>2.862524564081579</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.172260966794235</v>
+        <v>-5.32339851079912</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.456447620633497</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.13882533202836</v>
+        <v>-18.23925638712725</v>
       </c>
       <c r="F49" t="n">
-        <v>2.874700405724384</v>
+        <v>2.873312621623161</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.433727346846346</v>
+        <v>-5.604005837605835</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.708250201662413</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.65747372574947</v>
+        <v>-17.76879757681266</v>
       </c>
       <c r="F50" t="n">
-        <v>2.926179340498051</v>
+        <v>2.927514755387907</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.522794283078608</v>
+        <v>-5.683083346769861</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.982977196144939</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.96523130529604</v>
+        <v>-17.07264055780956</v>
       </c>
       <c r="F51" t="n">
-        <v>2.901932395635174</v>
+        <v>2.900623165351002</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.748675784006908</v>
+        <v>-5.926312148963447</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.27564044332816</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.59008445966922</v>
+        <v>-16.70165706448641</v>
       </c>
       <c r="F52" t="n">
-        <v>2.783682716368705</v>
+        <v>2.782975732015252</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.881222257976543</v>
+        <v>-6.045033151132219</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.591987081801597</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.16150792614532</v>
+        <v>-16.26378499594488</v>
       </c>
       <c r="F53" t="n">
-        <v>2.851945983385464</v>
+        <v>2.848253953984098</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.941368297231432</v>
+        <v>-6.105480313352468</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.929811973387419</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.88203962968583</v>
+        <v>-15.98075559311245</v>
       </c>
       <c r="F54" t="n">
-        <v>2.610628657406769</v>
+        <v>2.610235888321518</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.185592114440991</v>
+        <v>-6.365454170880623</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.285358489950951</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.53758114192002</v>
+        <v>-15.62183011070653</v>
       </c>
       <c r="F55" t="n">
-        <v>2.455380130309582</v>
+        <v>2.467844002614905</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.395422452085334</v>
+        <v>-6.564941589280003</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.660240102787125</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.13478335269148</v>
+        <v>-15.22840641031266</v>
       </c>
       <c r="F56" t="n">
-        <v>2.390939815722606</v>
+        <v>2.384707879569945</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.586412965940434</v>
+        <v>-6.749032459537514</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.041396897576123</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.59430690677934</v>
+        <v>-14.68689567247603</v>
       </c>
       <c r="F57" t="n">
-        <v>2.344671617479946</v>
+        <v>2.337366112494263</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.854111282145206</v>
+        <v>-7.016626037319552</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.429198449660529</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.34552696818086</v>
+        <v>-14.44336574731708</v>
       </c>
       <c r="F58" t="n">
-        <v>2.166459191198371</v>
+        <v>2.161038977821896</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.815056942768338</v>
+        <v>-6.985688925704554</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.813006703121069</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.96621677025037</v>
+        <v>-14.06054681222501</v>
       </c>
       <c r="F59" t="n">
-        <v>2.218147602817505</v>
+        <v>2.216471788053764</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.95403173743326</v>
+        <v>-7.129180564849872</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.185118603251897</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.85573082656905</v>
+        <v>-13.95480028217239</v>
       </c>
       <c r="F60" t="n">
-        <v>2.036950131488017</v>
+        <v>2.03553616278111</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.912031629917003</v>
+        <v>-7.081144905723579</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.545295511839235</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.53155231590507</v>
+        <v>-13.63787490728273</v>
       </c>
       <c r="F61" t="n">
-        <v>1.918490975376079</v>
+        <v>1.92372789651277</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.237021863357169</v>
+        <v>-7.395831496827307</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.8816329921949</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.22866188966174</v>
+        <v>-13.33507612715929</v>
       </c>
       <c r="F62" t="n">
-        <v>1.838889774098384</v>
+        <v>1.843236418641838</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.297180994914901</v>
+        <v>-7.48991278504795</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.20048379802523</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.89821216593657</v>
+        <v>-13.00052851264466</v>
       </c>
       <c r="F63" t="n">
-        <v>1.769736230488387</v>
+        <v>1.774109059637524</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.408059707681478</v>
+        <v>-7.587843210304061</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.49595691722062</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.65521902519414</v>
+        <v>-12.76169872420589</v>
       </c>
       <c r="F64" t="n">
-        <v>1.654811996143716</v>
+        <v>1.662326977974867</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.595489115163629</v>
+        <v>-7.772850541760492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.76626856811451</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.44745727139878</v>
+        <v>-12.56290519785713</v>
       </c>
       <c r="F65" t="n">
-        <v>1.583301838022208</v>
+        <v>1.591838019475014</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.826908660193979</v>
+        <v>-8.006561239788144</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.01385983261588</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.21127212813405</v>
+        <v>-12.32796382336235</v>
       </c>
       <c r="F66" t="n">
-        <v>1.513284202424657</v>
+        <v>1.519306661731851</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.944097862930269</v>
+        <v>-8.113512261702205</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.22799516469178</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.03049361049549</v>
+        <v>-12.14711984420959</v>
       </c>
       <c r="F67" t="n">
-        <v>1.554865356249979</v>
+        <v>1.55494391006703</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.903930677811854</v>
+        <v>-8.070346939233033</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.41299712417815</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.93769536795334</v>
+        <v>-12.05246249466391</v>
       </c>
       <c r="F68" t="n">
-        <v>1.421140575024589</v>
+        <v>1.418783960513079</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.918554780086061</v>
+        <v>-8.081527765859867</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.55915008082466</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.79171619126809</v>
+        <v>-11.91367099223877</v>
       </c>
       <c r="F69" t="n">
-        <v>1.301398373234163</v>
+        <v>1.293621545346177</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.986818047102821</v>
+        <v>-8.141569066692023</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.6611126747468</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.68761929137353</v>
+        <v>-11.80585587833716</v>
       </c>
       <c r="F70" t="n">
-        <v>1.358297521384304</v>
+        <v>1.364503272931282</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.931529252202212</v>
+        <v>-8.090509085609291</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.71825810680428</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.42305003554793</v>
+        <v>-11.54529286718113</v>
       </c>
       <c r="F71" t="n">
-        <v>1.294538006545098</v>
+        <v>1.296999359479343</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.788011428451211</v>
+        <v>-7.940288002803326</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.72038652257766</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.36865151724056</v>
+        <v>-11.49364373247051</v>
       </c>
       <c r="F72" t="n">
-        <v>1.3426391271856</v>
+        <v>1.340177774251355</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.787160428766499</v>
+        <v>-7.933885866713722</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.67601501941158</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.35088526228433</v>
+        <v>-11.47949095309861</v>
       </c>
       <c r="F73" t="n">
-        <v>1.311427077210925</v>
+        <v>1.301738773108047</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.673283578649166</v>
+        <v>-7.821396800697612</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.58149966018475</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54315882181792</v>
+        <v>-11.66537546884544</v>
       </c>
       <c r="F74" t="n">
-        <v>1.358349890595671</v>
+        <v>1.346462079615384</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.558830667206796</v>
+        <v>-7.706655858592725</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.44090906985654</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.66953882114911</v>
+        <v>-11.78794560804968</v>
       </c>
       <c r="F75" t="n">
-        <v>1.294524914242256</v>
+        <v>1.287428886102041</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.422395779293169</v>
+        <v>-7.560048251371076</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.26391042103486</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.00620738872409</v>
+        <v>-12.12089596161761</v>
       </c>
       <c r="F76" t="n">
-        <v>1.320120366297831</v>
+        <v>1.314202645413371</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.231536188466486</v>
+        <v>-7.373888797264573</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.04976908270715</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.61729062386165</v>
+        <v>-12.7275932753032</v>
       </c>
       <c r="F77" t="n">
-        <v>1.293935760614379</v>
+        <v>1.289196346985674</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.053978377326997</v>
+        <v>-7.187402035587027</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.81593901821885</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.14620656636455</v>
+        <v>-13.25416569559742</v>
       </c>
       <c r="F78" t="n">
-        <v>1.318706397590924</v>
+        <v>1.307630309386824</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.916430643671823</v>
+        <v>-7.054567530954874</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.564463664979</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64320347453931</v>
+        <v>-13.75181721891427</v>
       </c>
       <c r="F79" t="n">
-        <v>1.373563146497757</v>
+        <v>1.352982046430563</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.734761849440032</v>
+        <v>-6.865148093440782</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.30427007881417</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.19724354619547</v>
+        <v>-14.29632609410166</v>
       </c>
       <c r="F80" t="n">
-        <v>1.379009544479915</v>
+        <v>1.386210311042864</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.473923899924324</v>
+        <v>-6.612689217743778</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.04448952918496</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.97829105682433</v>
+        <v>-15.07078817640112</v>
       </c>
       <c r="F81" t="n">
-        <v>1.42941491042056</v>
+        <v>1.418862514330129</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.357860635232422</v>
+        <v>-6.497372214313855</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.78153863022205</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73282665419868</v>
+        <v>-15.82341229756059</v>
       </c>
       <c r="F82" t="n">
-        <v>1.465078343361422</v>
+        <v>1.456777823359767</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.270626621398002</v>
+        <v>-6.404626340983067</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.527678689822151</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.59894794869307</v>
+        <v>-16.68602485489339</v>
       </c>
       <c r="F83" t="n">
-        <v>1.417998422342575</v>
+        <v>1.403492150793942</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.010482563932904</v>
+        <v>-6.142845745662755</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.277007346642682</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.66979358272353</v>
+        <v>-17.75540415100557</v>
       </c>
       <c r="F84" t="n">
-        <v>1.508885188669837</v>
+        <v>1.504826574788902</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.822018864526258</v>
+        <v>-5.955206861335137</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.032619812773758</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.48197458951001</v>
+        <v>-18.56765061930626</v>
       </c>
       <c r="F85" t="n">
-        <v>1.497704362043003</v>
+        <v>1.489665688098183</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.612437280635906</v>
+        <v>-5.744460062491872</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.796380587690226</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.565100803606</v>
+        <v>-19.64433542040413</v>
       </c>
       <c r="F86" t="n">
-        <v>1.497206854535018</v>
+        <v>1.495243009108759</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.317729543668652</v>
+        <v>-5.454216800793647</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.562398852254409</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.6289289633133</v>
+        <v>-20.71701397683243</v>
       </c>
       <c r="F87" t="n">
-        <v>1.524883982742427</v>
+        <v>1.523679490880988</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.044126598882261</v>
+        <v>-5.174434289065961</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.339735891640665</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.98889192099759</v>
+        <v>-22.06988090637651</v>
       </c>
       <c r="F88" t="n">
-        <v>1.574687102752353</v>
+        <v>1.571518765464655</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.741131434216195</v>
+        <v>-4.887974702888995</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.122050416831028</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.45771737681084</v>
+        <v>-23.54090586906717</v>
       </c>
       <c r="F89" t="n">
-        <v>1.367985825487181</v>
+        <v>1.36547210334157</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.398610607270958</v>
+        <v>-4.537035525216528</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.913749770664737</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.95039700840171</v>
+        <v>-25.04048514425563</v>
       </c>
       <c r="F90" t="n">
-        <v>1.220959264574598</v>
+        <v>1.219152526782439</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.202618833730318</v>
+        <v>-4.341122305492938</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.715069215652055</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.59177901566891</v>
+        <v>-26.6587330524015</v>
       </c>
       <c r="F91" t="n">
-        <v>1.0542549724909</v>
+        <v>1.046465052300072</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.165057016877406</v>
+        <v>-4.305223211100926</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.520931213388428</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.2968550762611</v>
+        <v>-28.36738331166948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9724280797301117</v>
+        <v>0.9656069899495724</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.918921723452956</v>
+        <v>-4.056836041587698</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.336874718892465</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.19399521954142</v>
+        <v>-30.27159329848433</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8530262778135699</v>
+        <v>0.8555138153534978</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.964378198919429</v>
+        <v>-4.10629876172374</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.154166185025196</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.33744085618313</v>
+        <v>-32.41505202742888</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7693664626549404</v>
+        <v>0.7818434272631053</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.999478662838097</v>
+        <v>-4.135402950940897</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.974248194019266</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.43058586530692</v>
+        <v>-34.50961100525959</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3552700160739865</v>
+        <v>0.3641989666120437</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.00640449104137</v>
+        <v>-4.146243377693846</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.790224945823504</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.45299316217687</v>
+        <v>-36.53897031493849</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08046257942615634</v>
+        <v>0.09761349614881748</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.180741595681794</v>
+        <v>-4.31898322138758</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.595787506103238</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.59069127787107</v>
+        <v>-38.6794047219266</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2454441152129307</v>
+        <v>-0.2277564140737588</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.272152054122725</v>
+        <v>-4.415630600965201</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.389059502603854</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.94020976124154</v>
+        <v>-41.03148929665406</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5106156169692505</v>
+        <v>-0.4930719311613375</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.481982391767069</v>
+        <v>-4.630370552175193</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.167878388162122</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.36465549377522</v>
+        <v>-43.45402355297284</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4240100336712325</v>
+        <v>-0.402001872594291</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.798632828297055</v>
+        <v>-4.942543421133308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.932089737769769</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.8478725737654</v>
+        <v>-45.93264523466558</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5625396900395361</v>
+        <v>-0.5333962239138538</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.039688308218916</v>
+        <v>-5.174905611968263</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.699024146672785</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.25485317430822</v>
+        <v>-48.34791326290721</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5953620932637433</v>
+        <v>-0.5754748852471614</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.400734743685196</v>
+        <v>-5.540337968886521</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.454993565634292</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.54552175640513</v>
+        <v>-50.63396026210099</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7180762477992417</v>
+        <v>-0.6950468871006455</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.7155391655145</v>
+        <v>-5.848033270272767</v>
       </c>
     </row>
   </sheetData>
